--- a/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Ingresos Causas Por Materia_2018-Octubre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Taltal_Familia_Ingresos Causas Por Materia_2018-Octubre.xlsx
@@ -231,67 +231,67 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos, Aumento</t>
+          <t xml:space="preserve">Alimentos Aumento</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Alimentos, Otros</t>
+          <t xml:space="preserve">Alimentos, Aumento</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Alimentos, Rebaja</t>
+          <t xml:space="preserve">Alimentos, Cesacion</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Alimentos, Rebaja</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Autorizacion Salida Del Pais</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño, Declaracion</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -301,7 +301,7 @@
         </is>
       </c>
       <c r="B10" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -331,7 +331,7 @@
         </is>
       </c>
       <c r="B13" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -357,51 +357,31 @@
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
+          <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c t="inlineStr" r="A19">
-        <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
-        </is>
-      </c>
-      <c r="B19" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c t="inlineStr" r="A20">
-        <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
-        </is>
-      </c>
-      <c r="B20" s="65">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
